--- a/Sprenger.etal_data.xlsx
+++ b/Sprenger.etal_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rritaz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B593A60-D88B-CE48-A796-987377C5AD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56C9414-E095-C944-8153-FCC0751B8B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{BF928B28-F6E7-8B4C-85E7-22267B4DB5D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -531,7 +531,7 @@
         <v>3.6</v>
       </c>
       <c r="N2" s="1">
-        <v>0.75</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>
